--- a/data_raw/map_for_compilation_OM19.xlsx
+++ b/data_raw/map_for_compilation_OM19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/Oman_fieldwork/Samail_16S_compilation/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80E263-6F74-5246-9896-BEDECC543CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57974E52-4F02-1640-A977-D6F59DAF4095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="10680" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="17620" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
   <si>
     <t>year_sampled</t>
   </si>
@@ -104,9 +104,6 @@
     <t>14NP</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
     <t>A108</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Blank</t>
   </si>
   <si>
-    <t>blank</t>
-  </si>
-  <si>
     <t>D102</t>
   </si>
   <si>
@@ -165,6 +159,21 @@
   </si>
   <si>
     <t>BA1D</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>WAB56</t>
+  </si>
+  <si>
+    <t>Pumped well down too far on Jan 12 (pumping 10:30 - 12:00 at 20 lpm), had to let recover and sample the next day. On Jan 13, first water muddy; water cleared up, but was highly gassy.</t>
+  </si>
+  <si>
+    <t>extraction control</t>
+  </si>
+  <si>
+    <t>groundwater</t>
   </si>
 </sst>
 </file>
@@ -174,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +193,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
     </font>
@@ -208,10 +223,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -225,6 +239,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -541,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BD4913-E10A-5F43-B24E-C8D6C9202514}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,615 +592,683 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="7">
+        <v>2019</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>85</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3">
-        <v>2019</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5">
-        <v>85</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="5">
+        <v>304</v>
+      </c>
+      <c r="S2" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="6">
-        <v>304</v>
-      </c>
-      <c r="S2" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>32</v>
+      <c r="V2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7">
         <v>2019</v>
       </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
         <v>16</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>132</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
         <v>108</v>
       </c>
-      <c r="P3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="P3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
         <v>132</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>400</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>22</v>
       </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="4">
         <v>17.25</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7">
         <v>2019</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
         <v>14</v>
       </c>
-      <c r="K4" s="5">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="5" t="b">
+      <c r="K4" s="4">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>30</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="O4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>30</v>
+      </c>
+      <c r="R4" s="5">
         <v>400</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>22</v>
       </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="5">
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="4">
         <v>17.25</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="7">
         <v>2019</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>16</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>65</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
         <v>41</v>
       </c>
-      <c r="P5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="P5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
         <v>65</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>400</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>22</v>
       </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="5">
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="4">
         <v>17.25</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2019</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4">
+        <v>80</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5">
+        <v>136.5</v>
+      </c>
+      <c r="S6" s="5">
+        <v>136.5</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="3">
-        <v>2019</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>9</v>
-      </c>
-      <c r="K6" s="5">
-        <v>80</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="6">
-        <v>136.5</v>
-      </c>
-      <c r="S6" s="6">
-        <v>136.5</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="8">
         <v>2019</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
         <v>2019</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>11</v>
-      </c>
-      <c r="K8" s="5">
-        <v>75</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5">
-        <v>45</v>
-      </c>
-      <c r="P8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>75</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4">
+        <v>132</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>102</v>
+      </c>
+      <c r="P8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>132</v>
+      </c>
+      <c r="R8" s="5">
         <v>400</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>26</v>
       </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="5">
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="4">
         <v>17.03</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4">
+        <v>75</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>45</v>
+      </c>
+      <c r="P9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>75</v>
+      </c>
+      <c r="R9" s="5">
+        <v>400</v>
+      </c>
+      <c r="S9" s="5">
+        <v>26</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="4">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="10">
         <v>2019</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
         <v>13</v>
       </c>
-      <c r="K9" s="5">
-        <v>132</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5">
-        <v>102</v>
-      </c>
-      <c r="P9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>132</v>
-      </c>
-      <c r="R9" s="6">
-        <v>400</v>
-      </c>
-      <c r="S9" s="6">
-        <v>26</v>
-      </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="5">
-        <v>17.03</v>
+      <c r="K10" s="11">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="12">
+        <v>106</v>
+      </c>
+      <c r="S10" s="12">
+        <v>106</v>
+      </c>
+      <c r="T10" s="12">
+        <v>1</v>
+      </c>
+      <c r="U10" s="13">
+        <v>44039</v>
+      </c>
+      <c r="V10" s="11">
+        <v>7.62</v>
       </c>
     </row>
   </sheetData>
